--- a/wordsheet.xlsx
+++ b/wordsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365seoultech-my.sharepoint.com/personal/20101288_officestu_seoultech_ac_kr/Documents/2024 2학기/withus stella/wordtest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\OneDrive - 서울과학기술대학교\2024 2학기\withus stella\wordtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="11_AD4D066CA252ABDACC1048D4B9616AF549B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6860778-7832-4AEF-9D57-E53B48EC7879}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B53BB-8180-49BF-98E3-AC60F59D6B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2730" windowWidth="26440" windowHeight="18310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>make the most of</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>call a conference/mmeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>file for</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>disose of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bicentennial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,6 +668,310 @@
   </si>
   <si>
     <t>korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispose of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call a conference/meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)평생의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동)구성되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspiring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illiterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep track of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inevitably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foremost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in real time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around the clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjoining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in circulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straightforward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoroughly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep in mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at one's discretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endeavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)포부를 가진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)문맹의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)피할 수 없는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)피할 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동)제거하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사구)알다,파악하다,기록하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부)불가피하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리하다, 치우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)선두의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부)실시간으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간 내내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전치사구)정각에, 정확히 시간 맞춰서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)옆의, 부근의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동)중단시키다 명)중단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발매되는, 유통되는, 유통중인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)간결한, 간단한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)또렷한, 눈에 띄는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명) 전단, 광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명)소개, 알선, 위탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명) 측면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)의무적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)매우 설득력 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부)완전히, 철저하게, 아주, 대단히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부)명백하게, 확실히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형) 광대한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사구)~을 기억하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형용사)하나뿐인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명)결정권, 자유 재량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 자유 재량에 따라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)탄탄한, 충분한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형)미묘한, 애매한, 신비로운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동)가정하다, (직책 등을)떠맡다, 맡게 되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명)마모, 동)입다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형) 영구적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명) 시도, 노력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +1032,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,28 +1297,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.9140625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="44.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1037,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1048,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1059,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1070,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1081,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1092,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1103,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1114,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1125,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1136,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1147,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1158,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1169,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1180,7 +1472,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -1188,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1199,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1210,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -1221,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1232,10 +1524,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1243,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1254,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1265,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1276,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1287,10 +1579,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1298,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1309,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1320,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1331,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1342,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1353,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -1364,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -1375,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1386,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1397,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -1408,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -1419,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -1430,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -1441,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -1452,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -1463,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -1474,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -1485,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1496,10 +1788,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -1507,10 +1799,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1518,10 +1810,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1529,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1540,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1551,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1562,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1573,10 +1865,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1584,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1595,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1606,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -1617,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -1628,10 +1920,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -1639,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -1650,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -1661,10 +1953,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -1672,10 +1964,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -1683,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1694,10 +1986,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -1705,10 +1997,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -1716,10 +2008,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -1727,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -1738,10 +2030,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -1749,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -1760,10 +2052,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -1771,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -1782,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -1793,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -1804,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -1815,10 +2107,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -1826,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -1837,10 +2129,10 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -1848,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -1859,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -1870,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -1881,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -1892,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -1903,10 +2195,417 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
